--- a/data/5.xlsx
+++ b/data/5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18900" windowHeight="8490"/>
+    <workbookView windowWidth="21600" windowHeight="11190"/>
   </bookViews>
   <sheets>
     <sheet name="表5" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <t>ZJ-HZ-GS-CB-17</t>
   </si>
   <si>
-    <t>拱墅区城北供电所香寺网格</t>
+    <t>杭州市拱墅区城北供电所香寺网格</t>
   </si>
   <si>
     <t>桃源变</t>
@@ -109,7 +109,7 @@
     <t>ZJ-HZ-GS-YH-25</t>
   </si>
   <si>
-    <t>拱墅区运河供电所桃源网格</t>
+    <t>杭州市拱墅区运河供电所桃源网格</t>
   </si>
   <si>
     <t>北站变</t>
@@ -118,7 +118,7 @@
     <t>ZJ-HZ-GS-YH-14</t>
   </si>
   <si>
-    <t>拱墅区运河供电所智谷网格</t>
+    <t>杭州市拱墅区运河供电所智谷网格</t>
   </si>
   <si>
     <t>工业变（祥园变）</t>
@@ -127,7 +127,7 @@
     <t>ZJ-HZ-GS-YH-17</t>
   </si>
   <si>
-    <t>拱墅区运河供电所红旗网格</t>
+    <t>杭州市拱墅区运河供电所红旗网格</t>
   </si>
   <si>
     <t>萍水变</t>
@@ -136,7 +136,7 @@
     <t>ZJ-HZ-GS-YH-06</t>
   </si>
   <si>
-    <t>拱墅区运河供电所方家网格</t>
+    <t>杭州市拱墅区运河供电所方家网格</t>
   </si>
   <si>
     <t>广场扩</t>
@@ -145,7 +145,7 @@
     <t>ZJ-HZ-GS-CB-06</t>
   </si>
   <si>
-    <t>拱墅区城北供电所广场网格</t>
+    <t>杭州市拱墅区城北供电所广场网格</t>
   </si>
   <si>
     <t>永华变</t>
@@ -154,7 +154,7 @@
     <t>ZJ-HZ-GS-CB-23</t>
   </si>
   <si>
-    <t>拱墅区城北供电所华车网格</t>
+    <t>杭州市拱墅区城北供电所华车网格</t>
   </si>
   <si>
     <t>石塘变</t>
@@ -163,7 +163,7 @@
     <t>ZJ-HZ-GS-YH-21</t>
   </si>
   <si>
-    <t>拱墅区运河供电所杭钢网格</t>
+    <t>杭州市拱墅区运河供电所杭钢网格</t>
   </si>
   <si>
     <t>善贤变</t>
@@ -172,7 +172,7 @@
     <t>ZJ-HZ-GS-YH-10</t>
   </si>
   <si>
-    <t>拱墅区运河供电所上塘网格</t>
+    <t>杭州市拱墅区运河供电所上塘网格</t>
   </si>
 </sst>
 </file>
@@ -1392,19 +1392,19 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7787610619469" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.78181818181818" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="16.3362831858407" customWidth="1"/>
-    <col min="3" max="3" width="35.8849557522124" customWidth="1"/>
-    <col min="4" max="4" width="16.3362831858407" customWidth="1"/>
-    <col min="5" max="10" width="19.8849557522124" customWidth="1"/>
-    <col min="11" max="11" width="18.7787610619469" customWidth="1"/>
+    <col min="1" max="2" width="16.3363636363636" customWidth="1"/>
+    <col min="3" max="3" width="35.8818181818182" customWidth="1"/>
+    <col min="4" max="4" width="16.3363636363636" customWidth="1"/>
+    <col min="5" max="10" width="19.8818181818182" customWidth="1"/>
+    <col min="11" max="11" width="18.7818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.65" spans="2:10">
+    <row r="1" ht="17.5" spans="2:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
